--- a/ex_04/ex_01/scripts/Jacobi.xlsx
+++ b/ex_04/ex_01/scripts/Jacobi.xlsx
@@ -13,18 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>EdgeSize</t>
   </si>
   <si>
-    <t xml:space="preserve">No unrolling</t>
+    <t>Row</t>
   </si>
   <si>
-    <t xml:space="preserve">Twofold unrolling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fourfold unrolling</t>
+    <t>Column</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No unrolling</c:v>
+                  <c:v>Row</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -252,100 +249,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>30.987665</c:v>
+                  <c:v>2566914000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.311896</c:v>
+                  <c:v>3439329000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64.234384</c:v>
+                  <c:v>2793407000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.653368</c:v>
+                  <c:v>2453668000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145.923292</c:v>
+                  <c:v>3812622000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>188.149033</c:v>
+                  <c:v>2736781000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>251.632823</c:v>
+                  <c:v>2228220000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>304.234333</c:v>
+                  <c:v>3297756000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>352.349194</c:v>
+                  <c:v>2429018000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>372.327126</c:v>
+                  <c:v>3697958000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>409.03964</c:v>
+                  <c:v>2721541000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>434.795158</c:v>
+                  <c:v>2013109000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>464.477165</c:v>
+                  <c:v>3026117000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>482.338683</c:v>
+                  <c:v>2217443000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>495.872199</c:v>
+                  <c:v>3286802000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>438.968734</c:v>
+                  <c:v>2422162000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>434.637589</c:v>
+                  <c:v>3564912000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>443.186914</c:v>
+                  <c:v>2619471000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>444.928657</c:v>
+                  <c:v>1918041000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>452.975609</c:v>
+                  <c:v>2830774000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>454.09539</c:v>
+                  <c:v>2075372000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>454.711711</c:v>
+                  <c:v>3027934000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>456.300997</c:v>
+                  <c:v>2222522000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>459.982866</c:v>
+                  <c:v>3260901000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>461.313524</c:v>
+                  <c:v>2382713000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>464.464823</c:v>
+                  <c:v>3488439000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>462.450794</c:v>
+                  <c:v>2553474000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>456.310427</c:v>
+                  <c:v>1863619000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>450.865192</c:v>
+                  <c:v>2700492000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>451.031417</c:v>
+                  <c:v>1970803000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>450.704378</c:v>
+                  <c:v>2891052000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>450.402037</c:v>
+                  <c:v>2110696000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,7 +358,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Twofold unrolling</c:v>
+                  <c:v>Column</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -506,376 +503,113 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>30.547955</c:v>
+                  <c:v>2533360000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.439713</c:v>
+                  <c:v>1702888000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.924275</c:v>
+                  <c:v>2776629000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.451079</c:v>
+                  <c:v>2445279000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143.153085</c:v>
+                  <c:v>1902115000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>185.845655</c:v>
+                  <c:v>2732585000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>248.468277</c:v>
+                  <c:v>2226118000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>302.634306</c:v>
+                  <c:v>3295632000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>351.360537</c:v>
+                  <c:v>2427699000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>397.009002</c:v>
+                  <c:v>1847622000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>432.101936</c:v>
+                  <c:v>2640752000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>453.690764</c:v>
+                  <c:v>1794374000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>473.583216</c:v>
+                  <c:v>2927740000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>497.705753</c:v>
+                  <c:v>2145212000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>518.978296</c:v>
+                  <c:v>1569370000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>447.869964</c:v>
+                  <c:v>1171122000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>455.288195</c:v>
+                  <c:v>812372000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>461.925648</c:v>
+                  <c:v>1023626000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>467.114256</c:v>
+                  <c:v>285670800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>472.45832</c:v>
+                  <c:v>297580800</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>474.02424</c:v>
+                  <c:v>244068800</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>479.759009</c:v>
+                  <c:v>285043300</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>479.070355</c:v>
+                  <c:v>236522900</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>480.487735</c:v>
+                  <c:v>161136500</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>483.945879</c:v>
+                  <c:v>277437200</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>486.688327</c:v>
+                  <c:v>147098600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>483.213697</c:v>
+                  <c:v>261257000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>475.118625</c:v>
+                  <c:v>193125900</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>467.962196</c:v>
+                  <c:v>116742800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>466.031651</c:v>
+                  <c:v>100735400</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>465.891285</c:v>
+                  <c:v>36958790</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>467.213453</c:v>
+                  <c:v>10472770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fourfold unrolling</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr bwMode="auto">
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="4"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$2:$B$33</c:f>
-              <c:strCache>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>648</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>968</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2312</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10368</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15488</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>22472</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>32768</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>48672</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70688</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>103968</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>152352</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>223112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>326432</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>476288</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>700928</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1025312</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1492992</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2188232</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3205512</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4681800</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6845000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10017288</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14666528</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21438152</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31363200</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45849888</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>67094528</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>30.19985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40.018428</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.587541</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>102.138423</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>143.119817</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>184.737257</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250.779504</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>312.217427</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>363.558087</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>417.985275</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>457.295855</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>466.114824</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>531.804091</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>549.193306</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>558.648694</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>452.744469</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>458.604921</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>463.325286</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>470.631793</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>476.595044</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>476.654879</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>480.984812</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>480.547651</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>481.554649</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>487.472374</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>487.196686</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>484.066873</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>477.869177</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>469.349519</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>465.117541</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>468.592746</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>470.148853</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
-        </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511721979"/>
-        <c:axId val="511721980"/>
+        <c:axId val="511721993"/>
+        <c:axId val="511721994"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="511721979"/>
+        <c:axId val="511721993"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +707,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511721980"/>
+        <c:crossAx val="511721994"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -982,7 +716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="511721980"/>
+        <c:axId val="511721994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +764,7 @@
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Performance metrics [MUp/s]</a:t>
+                  <a:t>Cache hits</a:t>
                 </a:r>
                 <a:endParaRPr>
                   <a:solidFill>
@@ -1083,7 +817,7 @@
             <a:endParaRPr/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511721979"/>
+        <c:crossAx val="511721993"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1811,13 +1545,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
+      <xdr:colOff>285749</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>80961</xdr:rowOff>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="86179426" name=""/>
+        <xdr:cNvPr id="1722690662" name=""/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
@@ -2340,21 +2074,13 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="14.25">
       <c r="A2">
@@ -2365,17 +2091,11 @@
         <v>512</v>
       </c>
       <c r="C2">
-        <v>31.266141999999999</v>
+        <v>2566914000</v>
       </c>
       <c r="D2">
-        <v>29.156341000000001</v>
-      </c>
-      <c r="E2">
-        <v>30.723811000000001</v>
-      </c>
-      <c r="G2"/>
-      <c r="I2"/>
-      <c r="K2"/>
+        <v>2533360000</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3">
@@ -2386,17 +2106,11 @@
         <v>648</v>
       </c>
       <c r="C3">
-        <v>41.505144000000001</v>
+        <v>3439329000</v>
       </c>
       <c r="D3">
-        <v>37.727808000000003</v>
-      </c>
-      <c r="E3">
-        <v>40.65052</v>
-      </c>
-      <c r="G3"/>
-      <c r="I3"/>
-      <c r="K3"/>
+        <v>1702888000</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4">
@@ -2407,17 +2121,11 @@
         <v>968</v>
       </c>
       <c r="C4">
-        <v>64.771221999999995</v>
+        <v>2793407000</v>
       </c>
       <c r="D4">
-        <v>56.81127</v>
-      </c>
-      <c r="E4">
-        <v>63.433995000000003</v>
-      </c>
-      <c r="G4"/>
-      <c r="I4"/>
-      <c r="K4"/>
+        <v>2776629000</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5">
@@ -2428,17 +2136,11 @@
         <v>1568</v>
       </c>
       <c r="C5">
-        <v>104.279394</v>
+        <v>2453668000</v>
       </c>
       <c r="D5">
-        <v>87.731187000000006</v>
-      </c>
-      <c r="E5">
-        <v>102.491349</v>
-      </c>
-      <c r="G5"/>
-      <c r="I5"/>
-      <c r="K5"/>
+        <v>2445279000</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6">
@@ -2449,17 +2151,11 @@
         <v>2312</v>
       </c>
       <c r="C6">
-        <v>146.37685400000001</v>
+        <v>3812622000</v>
       </c>
       <c r="D6">
-        <v>114.772543</v>
-      </c>
-      <c r="E6">
-        <v>142.70301000000001</v>
-      </c>
-      <c r="G6"/>
-      <c r="I6"/>
-      <c r="K6"/>
+        <v>1902115000</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7">
@@ -2470,17 +2166,11 @@
         <v>3200</v>
       </c>
       <c r="C7">
-        <v>188.47886600000001</v>
+        <v>2736781000</v>
       </c>
       <c r="D7">
-        <v>141.28376299999999</v>
-      </c>
-      <c r="E7">
-        <v>184.880695</v>
-      </c>
-      <c r="G7"/>
-      <c r="I7"/>
-      <c r="K7"/>
+        <v>2732585000</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8">
@@ -2491,17 +2181,11 @@
         <v>5000</v>
       </c>
       <c r="C8">
-        <v>252.04335599999999</v>
+        <v>2228220000</v>
       </c>
       <c r="D8">
-        <v>171.39779200000001</v>
-      </c>
-      <c r="E8">
-        <v>242.61525399999999</v>
-      </c>
-      <c r="G8"/>
-      <c r="I8"/>
-      <c r="K8"/>
+        <v>2226118000</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9">
@@ -2512,17 +2196,11 @@
         <v>7200</v>
       </c>
       <c r="C9">
-        <v>304.52142300000003</v>
+        <v>3297756000</v>
       </c>
       <c r="D9">
-        <v>197.98104000000001</v>
-      </c>
-      <c r="E9">
-        <v>293.686892</v>
-      </c>
-      <c r="G9"/>
-      <c r="I9"/>
-      <c r="K9"/>
+        <v>3295632000</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10">
@@ -2533,17 +2211,11 @@
         <v>10368</v>
       </c>
       <c r="C10">
-        <v>351.88000499999998</v>
+        <v>2429018000</v>
       </c>
       <c r="D10">
-        <v>218.28777299999999</v>
-      </c>
-      <c r="E10">
-        <v>343.788093</v>
-      </c>
-      <c r="G10"/>
-      <c r="I10"/>
-      <c r="K10"/>
+        <v>2427699000</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11">
@@ -2554,17 +2226,11 @@
         <v>15488</v>
       </c>
       <c r="C11">
-        <v>371.44203900000002</v>
+        <v>3697958000</v>
       </c>
       <c r="D11">
-        <v>235.07004699999999</v>
-      </c>
-      <c r="E11">
-        <v>387.80200500000001</v>
-      </c>
-      <c r="G11"/>
-      <c r="I11"/>
-      <c r="K11"/>
+        <v>1847622000</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12">
@@ -2575,17 +2241,11 @@
         <v>22472</v>
       </c>
       <c r="C12">
-        <v>408.55467499999997</v>
+        <v>2721541000</v>
       </c>
       <c r="D12">
-        <v>243.923001</v>
-      </c>
-      <c r="E12">
-        <v>409.43760099999997</v>
-      </c>
-      <c r="G12"/>
-      <c r="I12"/>
-      <c r="K12"/>
+        <v>2640752000</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13">
@@ -2596,17 +2256,11 @@
         <v>32768</v>
       </c>
       <c r="C13">
-        <v>434.46960799999999</v>
+        <v>2013109000</v>
       </c>
       <c r="D13">
-        <v>257.77111400000001</v>
-      </c>
-      <c r="E13">
-        <v>447.594134</v>
-      </c>
-      <c r="G13"/>
-      <c r="I13"/>
-      <c r="K13"/>
+        <v>1794374000</v>
+      </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14">
@@ -2617,17 +2271,11 @@
         <v>48672</v>
       </c>
       <c r="C14">
-        <v>464.056668</v>
+        <v>3026117000</v>
       </c>
       <c r="D14">
-        <v>264.25369000000001</v>
-      </c>
-      <c r="E14">
-        <v>472.26501200000001</v>
-      </c>
-      <c r="G14"/>
-      <c r="I14"/>
-      <c r="K14"/>
+        <v>2927740000</v>
+      </c>
     </row>
     <row r="15" ht="14.25">
       <c r="A15">
@@ -2638,17 +2286,11 @@
         <v>70688</v>
       </c>
       <c r="C15">
-        <v>482.42541799999998</v>
+        <v>2217443000</v>
       </c>
       <c r="D15">
-        <v>269.038995</v>
-      </c>
-      <c r="E15">
-        <v>487.276499</v>
-      </c>
-      <c r="G15"/>
-      <c r="I15"/>
-      <c r="K15"/>
+        <v>2145212000</v>
+      </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16">
@@ -2659,17 +2301,11 @@
         <v>103968</v>
       </c>
       <c r="C16">
-        <v>495.74538999999999</v>
+        <v>3286802000</v>
       </c>
       <c r="D16">
-        <v>272.66361499999999</v>
-      </c>
-      <c r="E16">
-        <v>497.858316</v>
-      </c>
-      <c r="G16"/>
-      <c r="I16"/>
-      <c r="K16"/>
+        <v>1569370000</v>
+      </c>
     </row>
     <row r="17" ht="14.25">
       <c r="A17">
@@ -2680,17 +2316,11 @@
         <v>152352</v>
       </c>
       <c r="C17">
-        <v>430.24722600000001</v>
+        <v>2422162000</v>
       </c>
       <c r="D17">
-        <v>272.41679699999997</v>
-      </c>
-      <c r="E17">
-        <v>497.24823800000001</v>
-      </c>
-      <c r="G17"/>
-      <c r="I17"/>
-      <c r="K17"/>
+        <v>1171122000</v>
+      </c>
     </row>
     <row r="18" ht="14.25">
       <c r="A18">
@@ -2701,17 +2331,11 @@
         <v>223112</v>
       </c>
       <c r="C18">
-        <v>442.66938299999998</v>
+        <v>3564912000</v>
       </c>
       <c r="D18">
-        <v>275.37886900000001</v>
-      </c>
-      <c r="E18">
-        <v>508.47377599999999</v>
-      </c>
-      <c r="G18"/>
-      <c r="I18"/>
-      <c r="K18"/>
+        <v>812372000</v>
+      </c>
     </row>
     <row r="19" ht="14.25">
       <c r="A19">
@@ -2722,17 +2346,11 @@
         <v>326432</v>
       </c>
       <c r="C19">
-        <v>444.35719799999998</v>
+        <v>2619471000</v>
       </c>
       <c r="D19">
-        <v>276.54771299999999</v>
-      </c>
-      <c r="E19">
-        <v>512.74819400000001</v>
-      </c>
-      <c r="G19"/>
-      <c r="I19"/>
-      <c r="K19"/>
+        <v>1023626000</v>
+      </c>
     </row>
     <row r="20" ht="14.25">
       <c r="A20">
@@ -2743,17 +2361,11 @@
         <v>476288</v>
       </c>
       <c r="C20">
-        <v>450.687095</v>
+        <v>1918041000</v>
       </c>
       <c r="D20">
-        <v>279.03792199999998</v>
-      </c>
-      <c r="E20">
-        <v>522.61687900000004</v>
-      </c>
-      <c r="G20"/>
-      <c r="I20"/>
-      <c r="K20"/>
+        <v>285670800</v>
+      </c>
     </row>
     <row r="21" ht="14.25">
       <c r="A21">
@@ -2764,17 +2376,11 @@
         <v>700928</v>
       </c>
       <c r="C21">
-        <v>446.87505900000002</v>
+        <v>2830774000</v>
       </c>
       <c r="D21">
-        <v>279.752475</v>
-      </c>
-      <c r="E21">
-        <v>528.99499500000002</v>
-      </c>
-      <c r="G21"/>
-      <c r="I21"/>
-      <c r="K21"/>
+        <v>297580800</v>
+      </c>
     </row>
     <row r="22" ht="14.25">
       <c r="A22">
@@ -2785,17 +2391,11 @@
         <v>1025312</v>
       </c>
       <c r="C22">
-        <v>454.676401</v>
+        <v>2075372000</v>
       </c>
       <c r="D22">
-        <v>280.15740699999998</v>
-      </c>
-      <c r="E22">
-        <v>528.63598300000001</v>
-      </c>
-      <c r="G22"/>
-      <c r="I22"/>
-      <c r="K22"/>
+        <v>244068800</v>
+      </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23">
@@ -2806,17 +2406,11 @@
         <v>1492992</v>
       </c>
       <c r="C23">
-        <v>456.630244</v>
+        <v>3027934000</v>
       </c>
       <c r="D23">
-        <v>281.22544299999998</v>
-      </c>
-      <c r="E23">
-        <v>533.30421999999999</v>
-      </c>
-      <c r="G23"/>
-      <c r="I23"/>
-      <c r="K23"/>
+        <v>285043300</v>
+      </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24">
@@ -2827,17 +2421,11 @@
         <v>2188232</v>
       </c>
       <c r="C24">
-        <v>457.42714999999998</v>
+        <v>2222522000</v>
       </c>
       <c r="D24">
-        <v>281.96346399999999</v>
-      </c>
-      <c r="E24">
-        <v>535.63520900000003</v>
-      </c>
-      <c r="G24"/>
-      <c r="I24"/>
-      <c r="K24"/>
+        <v>236522900</v>
+      </c>
     </row>
     <row r="25" ht="14.25">
       <c r="A25">
@@ -2848,17 +2436,11 @@
         <v>3205512</v>
       </c>
       <c r="C25">
-        <v>459.87224099999997</v>
+        <v>3260901000</v>
       </c>
       <c r="D25">
-        <v>282.62504999999999</v>
-      </c>
-      <c r="E25">
-        <v>536.29155100000003</v>
-      </c>
-      <c r="G25"/>
-      <c r="I25"/>
-      <c r="K25"/>
+        <v>161136500</v>
+      </c>
     </row>
     <row r="26" ht="14.25">
       <c r="A26">
@@ -2869,17 +2451,11 @@
         <v>4681800</v>
       </c>
       <c r="C26">
-        <v>463.96293100000003</v>
+        <v>2382713000</v>
       </c>
       <c r="D26">
-        <v>283.26708100000002</v>
-      </c>
-      <c r="E26">
-        <v>538.122254</v>
-      </c>
-      <c r="G26"/>
-      <c r="I26"/>
-      <c r="K26"/>
+        <v>277437200</v>
+      </c>
     </row>
     <row r="27" ht="14.25">
       <c r="A27">
@@ -2890,17 +2466,11 @@
         <v>6845000</v>
       </c>
       <c r="C27">
-        <v>464.68455599999999</v>
+        <v>3488439000</v>
       </c>
       <c r="D27">
-        <v>283.764634</v>
-      </c>
-      <c r="E27">
-        <v>540.00916299999994</v>
-      </c>
-      <c r="G27"/>
-      <c r="I27"/>
-      <c r="K27"/>
+        <v>147098600</v>
+      </c>
     </row>
     <row r="28" ht="14.25">
       <c r="A28">
@@ -2911,17 +2481,11 @@
         <v>10017288</v>
       </c>
       <c r="C28">
-        <v>462.33331600000002</v>
+        <v>2553474000</v>
       </c>
       <c r="D28">
-        <v>283.92195900000002</v>
-      </c>
-      <c r="E28">
-        <v>540.653504</v>
-      </c>
-      <c r="G28"/>
-      <c r="I28"/>
-      <c r="K28"/>
+        <v>261257000</v>
+      </c>
     </row>
     <row r="29" ht="14.25">
       <c r="A29">
@@ -2932,17 +2496,11 @@
         <v>14666528</v>
       </c>
       <c r="C29">
-        <v>456.14648899999997</v>
+        <v>1863619000</v>
       </c>
       <c r="D29">
-        <v>282.12787200000002</v>
-      </c>
-      <c r="E29">
-        <v>526.93032400000004</v>
-      </c>
-      <c r="G29"/>
-      <c r="I29"/>
-      <c r="K29"/>
+        <v>193125900</v>
+      </c>
     </row>
     <row r="30" ht="14.25">
       <c r="A30">
@@ -2953,17 +2511,11 @@
         <v>21438152</v>
       </c>
       <c r="C30">
-        <v>451.443916</v>
+        <v>2700492000</v>
       </c>
       <c r="D30">
-        <v>283.12654700000002</v>
-      </c>
-      <c r="E30">
-        <v>519.38055299999996</v>
-      </c>
-      <c r="G30"/>
-      <c r="I30"/>
-      <c r="K30"/>
+        <v>116742800</v>
+      </c>
     </row>
     <row r="31" ht="14.25">
       <c r="A31">
@@ -2974,17 +2526,11 @@
         <v>31363200</v>
       </c>
       <c r="C31">
-        <v>451.80636099999998</v>
+        <v>1970803000</v>
       </c>
       <c r="D31">
-        <v>281.82755600000002</v>
-      </c>
-      <c r="E31">
-        <v>508.023279</v>
-      </c>
-      <c r="G31"/>
-      <c r="I31"/>
-      <c r="K31"/>
+        <v>100735400</v>
+      </c>
     </row>
     <row r="32" ht="14.25">
       <c r="A32">
@@ -2995,17 +2541,11 @@
         <v>45849888</v>
       </c>
       <c r="C32">
-        <v>448.755492</v>
+        <v>2891052000</v>
       </c>
       <c r="D32">
-        <v>281.36632500000002</v>
-      </c>
-      <c r="E32">
-        <v>509.58154300000001</v>
-      </c>
-      <c r="G32"/>
-      <c r="I32"/>
-      <c r="K32"/>
+        <v>36958790</v>
+      </c>
     </row>
     <row r="33" ht="14.25">
       <c r="A33">
@@ -3016,18 +2556,45 @@
         <v>67094528</v>
       </c>
       <c r="C33">
-        <v>451.18319000000002</v>
+        <v>2110696000</v>
       </c>
       <c r="D33">
-        <v>281.68836199999998</v>
-      </c>
-      <c r="E33">
-        <v>505.17877399999998</v>
-      </c>
-      <c r="G33"/>
-      <c r="I33"/>
-      <c r="K33"/>
-    </row>
+        <v>10472770</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25"/>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25"/>
+    <row r="38" ht="14.25"/>
+    <row r="39" ht="14.25"/>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25"/>
+    <row r="42" ht="14.25"/>
+    <row r="43" ht="14.25"/>
+    <row r="44" ht="14.25"/>
+    <row r="45" ht="14.25"/>
+    <row r="46" ht="14.25"/>
+    <row r="47" ht="14.25"/>
+    <row r="48" ht="14.25"/>
+    <row r="49" ht="14.25"/>
+    <row r="50" ht="14.25"/>
+    <row r="51" ht="14.25"/>
+    <row r="52" ht="14.25"/>
+    <row r="53" ht="14.25"/>
+    <row r="54" ht="14.25"/>
+    <row r="55" ht="14.25"/>
+    <row r="56" ht="14.25"/>
+    <row r="57" ht="14.25"/>
+    <row r="58" ht="14.25"/>
+    <row r="59" ht="14.25"/>
+    <row r="60" ht="14.25"/>
+    <row r="61" ht="14.25"/>
+    <row r="62" ht="14.25"/>
+    <row r="63" ht="14.25"/>
+    <row r="64" ht="14.25"/>
+    <row r="65" ht="14.25"/>
+    <row r="66" ht="14.25"/>
+    <row r="67" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
